--- a/public/data/excel/escapadas.xlsx
+++ b/public/data/excel/escapadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\Argentina-universo.sur\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deposito\Desktop\Nacho\Argentina-universo.sur\public\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C11802-D5B7-4D09-82AE-422C7D89B272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F775E84B-04DC-457F-8342-405F17A82BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="2535" windowWidth="14070" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="7575" windowWidth="14970" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -94,16 +94,205 @@
   </si>
   <si>
     <t>/pdf/pto_madryn_1.pdf</t>
+  </si>
+  <si>
+    <t>esc_05</t>
+  </si>
+  <si>
+    <t>esc_06</t>
+  </si>
+  <si>
+    <t>esc_07</t>
+  </si>
+  <si>
+    <t>esc_08</t>
+  </si>
+  <si>
+    <t>esc_09</t>
+  </si>
+  <si>
+    <t>esc_10</t>
+  </si>
+  <si>
+    <t>esc_11</t>
+  </si>
+  <si>
+    <t>esc_12</t>
+  </si>
+  <si>
+    <t>esc_13</t>
+  </si>
+  <si>
+    <t>esc_14</t>
+  </si>
+  <si>
+    <t>esc_15</t>
+  </si>
+  <si>
+    <t>esc_16</t>
+  </si>
+  <si>
+    <t>esc_17</t>
+  </si>
+  <si>
+    <t>esc_18</t>
+  </si>
+  <si>
+    <t>esc_19</t>
+  </si>
+  <si>
+    <t>esc_20</t>
+  </si>
+  <si>
+    <t>esc_21</t>
+  </si>
+  <si>
+    <t>esc_22</t>
+  </si>
+  <si>
+    <t>esc_23</t>
+  </si>
+  <si>
+    <t>Jujuy</t>
+  </si>
+  <si>
+    <t>CABA</t>
+  </si>
+  <si>
+    <t>Sierra de la Ventana</t>
+  </si>
+  <si>
+    <t>San Carlos de Bariloche</t>
+  </si>
+  <si>
+    <t>Ciudad Autónoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t>Río Negro</t>
+  </si>
+  <si>
+    <t>Salta</t>
+  </si>
+  <si>
+    <t>Norte de Córdoba</t>
+  </si>
+  <si>
+    <t>Entre Ríos</t>
+  </si>
+  <si>
+    <t>Ushuaia</t>
+  </si>
+  <si>
+    <t>Talampaya e Ischigualasto</t>
+  </si>
+  <si>
+    <t>Chaco</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>Río Gallegos</t>
+  </si>
+  <si>
+    <t>Neuquén</t>
+  </si>
+  <si>
+    <t>Santiago del Estero</t>
+  </si>
+  <si>
+    <t>La Pampa</t>
+  </si>
+  <si>
+    <t>Formosa</t>
+  </si>
+  <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
+    <t>Tierra del Fuego</t>
+  </si>
+  <si>
+    <t>La Rioja</t>
+  </si>
+  <si>
+    <t>/pdf/jujuy.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/caba.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/salta.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/ushuaia.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/ventana.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/bariloche.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/cba.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/entrerios.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/talampaya.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/chaco.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/mendoza.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/misiones.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/formosa.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/sanjuan.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/sanluis.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/gallegos.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/neuquen.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/santiago.pdf</t>
+  </si>
+  <si>
+    <t>/pdf/lapampa.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +696,331 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>